--- a/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.197.19.188\KY-Share\★個人フォルダ★\藤田すずこ\ITA\ドキュメント\ITA導入支援\レビュー後_20210310\プルリク用\20210318\mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00BH9Y\Desktop\work\mail\ita_work\it-automation-docs\asset\Documents_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,8 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ログ一覧!$B$5:$E$5</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ログ一覧!$A$1:$G$16</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ログ一覧!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ログ一覧!$A$1:$K$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -577,7 +576,225 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ver1.6</t>
+    <t>Webap機能の操作・処理結果ログファイルの出力内容詳細については以下となります。</t>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力内容</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ出力時刻</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>アクセス元IP</t>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセス元IP</t>
+  </si>
+  <si>
+    <t>リクエストメソッド名</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在のリクエストのホスト名</t>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在のリクエストのホスト、ヘッダーがあればその内容</t>
+  </si>
+  <si>
+    <t>現在実行しているスクリプトのファイル名</t>
+  </si>
+  <si>
+    <t>クエリ実行時の検索引数</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+  </si>
+  <si>
+    <t>フリーログ</t>
+  </si>
+  <si>
+    <t>Ver1.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力例</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/12/31  12:34:56</t>
+  </si>
+  <si>
+    <t>No.3～10の順番で最初に取得できた値</t>
+    <rPh sb="8" eb="10">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>192.168.1.2</t>
+  </si>
+  <si>
+    <t>GETまたはPOST</t>
+  </si>
+  <si>
+    <t>192.168.3.4</t>
+  </si>
+  <si>
+    <t>/default/mainmenu/01_browse.php</t>
+  </si>
+  <si>
+    <t>grp=2100000002</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>ユーザの IP アドレス。プロキシサーバ経由の場合はプロキシサーバのIPアドレスの値</t>
+    <rPh sb="20" eb="22">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>任意</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESULT:SUCCESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（プロキシサーバ使用時のみ設定）プロキシサーバがHTTP_CLIENT_IPに設定した値</t>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（プロキシサーバ使用時のみ設定）プロキシサーバがHTTP_X_FORWARDED_FORに設定した値</t>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（プロキシサーバ使用時のみ設定）プロキシサーバがHTTP_VIAに設定した値</t>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（プロキシサーバ使用時のみ設定）プロキシサーバがHTTP_SP_HOSTに設定した値</t>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（プロキシサーバ使用時のみ設定）プロキシサーバがHTTP_FORWARDEDに設定した値</t>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（プロキシサーバ使用時のみ設定）プロキシサーバがHTTP_X_REAL_IPに設定した値</t>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/12/31 12:34:56   "192.168.1.2"        ""      ""      ""      ""      ""      ""      "192.168.1.2"        "GET"   "192.168.3.4" "/default/mainmenu/01_browse.php"     "grp=2100000002"        "administrator" "RESULT:SUCCESS"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2517,7 +2734,7 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2525,8 +2742,8 @@
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="74.875" style="22" customWidth="1"/>
     <col min="5" max="5" width="57" style="22" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
@@ -2544,7 +2761,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="6"/>
       <c r="G1" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2660,7 +2877,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="11">
         <v>4</v>
@@ -2723,7 +2940,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="11">
         <v>7</v>
@@ -2793,14 +3010,264 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="11">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="11">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="11">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="11">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="11">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="11">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="11">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="11">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="11">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="11">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B5:E5"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="17" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.197.19.188\KY-Share\★個人フォルダ★\藤田すずこ\ITA\ドキュメント\ITA導入支援\レビュー後_20210310\プルリク用\20210318\mail\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10815" tabRatio="721"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -2660,7 +2655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="11">
         <v>4</v>
@@ -2723,7 +2718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="11">
         <v>7</v>

--- a/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00BH9Y\Desktop\work\mail\ita_work\it-automation-docs\asset\Documents_ja\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10815" tabRatio="721"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -2877,7 +2872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="11">
         <v>4</v>

--- a/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
@@ -560,10 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/var/log/httpd/exastro-it-automation-*.log</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日次　※2</t>
     <rPh sb="0" eb="2">
       <t>ニチジ</t>
@@ -790,6 +786,10 @@
   </si>
   <si>
     <t>2020/12/31 12:34:56   "192.168.1.2"        ""      ""      ""      ""      ""      ""      "192.168.1.2"        "GET"   "192.168.3.4" "/default/mainmenu/01_browse.php"     "grp=2100000002"        "administrator" "RESULT:SUCCESS"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/var/log/httpd/exastro-it-automation-*_log</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2756,7 +2756,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="6"/>
       <c r="G1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2839,7 +2839,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>67</v>
@@ -2953,7 +2953,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3015,7 +3015,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -3023,13 +3023,13 @@
         <v>75</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -3037,13 +3037,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -3051,13 +3051,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3065,13 +3065,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3079,13 +3079,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -3093,13 +3093,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -3107,13 +3107,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -3121,13 +3121,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -3135,13 +3135,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -3149,13 +3149,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -3163,13 +3163,13 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -3177,13 +3177,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
@@ -3191,13 +3191,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
@@ -3205,13 +3205,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
@@ -3219,13 +3219,13 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
@@ -3233,23 +3233,23 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ログ一覧!$B$5:$E$5</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ログ一覧!$A$1:$K$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ログ一覧!$A$1:$K$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -502,13 +498,6 @@
     <t>/(ITAインストールディレクトリ)/ita-root/logs/update_by_file/*</t>
   </si>
   <si>
-    <t>※2  インストール時に、crontabに0時0分実行の削除スクリプトを登録。</t>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※1  OS・Apacheのデフォルトのローテート設定に依存。</t>
     <rPh sb="25" eb="27">
       <t>セッテイ</t>
@@ -560,13 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日次　※2</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Webap機能の操作・処理結果ログファイルの出力内容詳細については以下となります。</t>
     <rPh sb="22" eb="24">
       <t>シュツリョク</t>
@@ -790,6 +772,28 @@
   </si>
   <si>
     <t>/var/log/httpd/exastro-it-automation-*_log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※3  インストール時に、crontabに0時0分実行の削除スクリプトを登録。</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2  mariadbのデフォルトローテート設定に依存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日次　※3</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし ※2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2729,9 +2733,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2748,7 +2754,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2756,7 +2762,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="6"/>
       <c r="G1" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2771,7 +2777,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="19"/>
@@ -2791,7 +2797,7 @@
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>63</v>
@@ -2800,13 +2806,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2815,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>65</v>
@@ -2827,7 +2833,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2836,10 +2842,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>67</v>
@@ -2848,7 +2854,7 @@
         <v>66</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2857,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>68</v>
@@ -2866,7 +2872,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>61</v>
@@ -2881,7 +2887,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>59</v>
@@ -2902,7 +2908,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>2</v>
@@ -2923,10 +2929,10 @@
         <v>58</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>62</v>
@@ -2944,7 +2950,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>64</v>
@@ -2953,7 +2959,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2965,7 +2971,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>3</v>
@@ -2987,7 +2993,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="21"/>
@@ -2997,7 +3003,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="21"/>
@@ -3006,250 +3012,260 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="C17" s="17"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="20" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>104</v>
+      <c r="C22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>107</v>
+        <v>89</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="11">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="11">
         <v>15</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>122</v>
+      <c r="C37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3277,7 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="17" max="10" man="1"/>
+    <brk id="18" max="10" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】ログ一覧.xlsx
@@ -627,10 +627,6 @@
     <t>フリーログ</t>
   </si>
   <si>
-    <t>Ver1.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出力例</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -794,6 +790,10 @@
   </si>
   <si>
     <t>なし ※2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2736,7 +2736,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2762,7 +2762,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="6"/>
       <c r="G1" s="8" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2845,7 +2845,7 @@
         <v>70</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>67</v>
@@ -2872,7 +2872,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>61</v>
@@ -2959,7 +2959,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3003,7 +3003,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="21"/>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="21"/>
@@ -3045,7 +3045,7 @@
         <v>73</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -3059,7 +3059,7 @@
         <v>88</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -3070,10 +3070,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -3084,7 +3084,7 @@
         <v>89</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>88</v>
@@ -3098,7 +3098,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>88</v>
@@ -3112,7 +3112,7 @@
         <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>88</v>
@@ -3126,7 +3126,7 @@
         <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>88</v>
@@ -3140,7 +3140,7 @@
         <v>89</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>88</v>
@@ -3154,7 +3154,7 @@
         <v>90</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>88</v>
@@ -3168,10 +3168,10 @@
         <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -3182,10 +3182,10 @@
         <v>91</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
@@ -3199,7 +3199,7 @@
         <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
@@ -3213,7 +3213,7 @@
         <v>88</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
@@ -3227,7 +3227,7 @@
         <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
@@ -3241,7 +3241,7 @@
         <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
@@ -3252,20 +3252,20 @@
         <v>97</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
